--- a/Input/Config.xlsx
+++ b/Input/Config.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Documents\UiPath\MumbaiExtraction\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaura\Documents\UiPath\2nd tasks\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D7BF740-02C0-45B4-B4F3-00273018CBF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Name</t>
   </si>
@@ -43,14 +42,76 @@
   </si>
   <si>
     <t>Write all values in small letters</t>
+  </si>
+  <si>
+    <t>NagoThaneURL</t>
+  </si>
+  <si>
+    <t>https://resindistributors.com/jamnagar-hazira-baroda-nagothane/</t>
+  </si>
+  <si>
+    <t>URL to Extract PDF from NagoThane Website</t>
+  </si>
+  <si>
+    <t>RelleneURL</t>
+  </si>
+  <si>
+    <t>https://resindistributors.com/relene-pe-lldpe-hdpe-ldpe/</t>
+  </si>
+  <si>
+    <t>URL to Extract PDF from Rellene Website</t>
+  </si>
+  <si>
+    <t>DownLoadPath</t>
+  </si>
+  <si>
+    <t>C:\Users\LENOVO\Downloads</t>
+  </si>
+  <si>
+    <t>Provide the Download Path</t>
+  </si>
+  <si>
+    <t>Input\relene-pe-lldpe-hdpe-ldpe</t>
+  </si>
+  <si>
+    <t>RelleneFolderPath</t>
+  </si>
+  <si>
+    <t>NagoThaneFolderPath</t>
+  </si>
+  <si>
+    <t>Input\jamnagar-hazira-baroda-nagothane</t>
+  </si>
+  <si>
+    <t>Provide a folder path to move Rellene downloaded PDF files</t>
+  </si>
+  <si>
+    <t>Provide a folder path to move NagoThane downloaded PDF files</t>
+  </si>
+  <si>
+    <t>Output\Output.xlsx</t>
+  </si>
+  <si>
+    <t>OutputExcelPath</t>
+  </si>
+  <si>
+    <t>Provide Output Excel File Folder Path</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -78,8 +139,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -359,26 +421,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -393,7 +457,74 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>